--- a/newdata/2014_merged_data_final.xlsx
+++ b/newdata/2014_merged_data_final.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F950700C-296B-4CAB-A3D5-D455441FE0D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2EEC7D-2791-453B-8068-9472719782A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>AL</t>
   </si>
@@ -340,18 +340,40 @@
     <t>State Name</t>
   </si>
   <si>
-    <t>Current Smoker</t>
-  </si>
-  <si>
-    <t>Physical Activity Last Month</t>
+    <t>Current Smoker (%)</t>
+  </si>
+  <si>
+    <t>Physical Activity Last Month (%)</t>
+  </si>
+  <si>
+    <t>Household Income (Median)</t>
+  </si>
+  <si>
+    <t>Diabetes (%)</t>
+  </si>
+  <si>
+    <t>Heart Attack Ever (%)</t>
+  </si>
+  <si>
+    <t>CORRELATIONS</t>
+  </si>
+  <si>
+    <t>Depression Ever (%)</t>
+  </si>
+  <si>
+    <t>Diabetes Ever (%)</t>
+  </si>
+  <si>
+    <t>*Correlation above 0.5 in absolute value suggests a strong relationship.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -382,10 +404,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,21 +689,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -693,8 +724,20 @@
       <c r="D1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -707,9 +750,24 @@
       <c r="D2" s="2">
         <v>0.72400000000000009</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>42830</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.129</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -722,9 +780,30 @@
       <c r="D3" s="2">
         <v>0.80799999999999994</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>71583</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="K3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -737,9 +816,36 @@
       <c r="D4" s="2">
         <v>0.78799999999999992</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>50068</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.10099999999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4">
+        <f>CORREL(C2:C52,F2:F52)</f>
+        <v>0.50508820933918974</v>
+      </c>
+      <c r="L4">
+        <f>CORREL(D2:D52,F2:F52)</f>
+        <v>-0.14884740369810026</v>
+      </c>
+      <c r="M4">
+        <f>CORREL(E2:E52, F2:F52)</f>
+        <v>-0.52377193230757879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -752,9 +858,36 @@
       <c r="D5" s="2">
         <v>0.69400000000000006</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>41262</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.215</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5">
+        <f>CORREL(C2:C52, G2:G52)</f>
+        <v>0.67412928746786904</v>
+      </c>
+      <c r="L5">
+        <f>CORREL(D2:D52,G2:G52)</f>
+        <v>-0.86583672530753153</v>
+      </c>
+      <c r="M5">
+        <f>CORREL(E2:E52, G2:G52)</f>
+        <v>-0.61669255033594383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -767,9 +900,36 @@
       <c r="D6" s="2">
         <v>0.78299999999999992</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>61933</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6">
+        <f>CORREL(C2:C52, H2:H52)</f>
+        <v>0.83187466423735779</v>
+      </c>
+      <c r="L6">
+        <f>CORREL(D2:D52,H2:H52)</f>
+        <v>-0.68169714052454922</v>
+      </c>
+      <c r="M6">
+        <f>CORREL(E2:E52, H2:H52)</f>
+        <v>-0.73158303614369169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -782,9 +942,21 @@
       <c r="D7" s="2">
         <v>0.83599999999999997</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>61303</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -797,9 +969,24 @@
       <c r="D8" s="2">
         <v>0.79400000000000004</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>70048</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -812,9 +999,21 @@
       <c r="D9" s="2">
         <v>0.75099999999999989</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>59716</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -827,9 +1026,21 @@
       <c r="D10" s="2">
         <v>0.79200000000000004</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>71648</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.18100000000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -842,9 +1053,21 @@
       <c r="D11" s="2">
         <v>0.76300000000000001</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>47463</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -857,9 +1080,21 @@
       <c r="D12" s="2">
         <v>0.76400000000000001</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>49321</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -872,9 +1107,21 @@
       <c r="D13" s="2">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>69592</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -887,9 +1134,21 @@
       <c r="D14" s="2">
         <v>0.81299999999999994</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>47861</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -902,9 +1161,21 @@
       <c r="D15" s="2">
         <v>0.7609999999999999</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>57444</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.10099999999999999</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -917,9 +1188,21 @@
       <c r="D16" s="2">
         <v>0.7390000000000001</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>49446</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -932,9 +1215,21 @@
       <c r="D17" s="2">
         <v>0.77400000000000002</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>53712</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="G17" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -947,9 +1242,21 @@
       <c r="D18" s="2">
         <v>0.76200000000000001</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>52504</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.18600000000000003</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -962,9 +1269,21 @@
       <c r="D19" s="2">
         <v>0.71799999999999997</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>42958</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -977,9 +1296,21 @@
       <c r="D20" s="2">
         <v>0.70499999999999996</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>44555</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.113</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -992,9 +1323,21 @@
       <c r="D21" s="2">
         <v>0.80299999999999994</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>49462</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G21" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1007,9 +1350,21 @@
       <c r="D22" s="2">
         <v>0.78599999999999992</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>73971</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.10099999999999999</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1022,9 +1377,21 @@
       <c r="D23" s="2">
         <v>0.79900000000000004</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>69160</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.217</v>
+      </c>
+      <c r="G23" s="2">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4.0999999999999995E-2</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1037,9 +1404,21 @@
       <c r="D24" s="2">
         <v>0.745</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="1">
+        <v>49847</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1052,9 +1431,21 @@
       <c r="D25" s="2">
         <v>0.79799999999999993</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="1">
+        <v>61481</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.182</v>
+      </c>
+      <c r="G25" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1067,9 +1458,21 @@
       <c r="D26" s="2">
         <v>0.68400000000000005</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="1">
+        <v>39680</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1082,9 +1485,21 @@
       <c r="D27" s="2">
         <v>0.75</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>48363</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.217</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1097,9 +1512,21 @@
       <c r="D28" s="2">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>46328</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G28" s="2">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1112,9 +1539,21 @@
       <c r="D29" s="2">
         <v>0.78700000000000003</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="1">
+        <v>52686</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G29" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1127,9 +1566,21 @@
       <c r="D30" s="2">
         <v>0.77500000000000002</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E30" s="1">
+        <v>51450</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="G30" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1142,9 +1593,21 @@
       <c r="D31" s="2">
         <v>0.80700000000000005</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="1">
+        <v>66532</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G31" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1157,9 +1620,21 @@
       <c r="D32" s="2">
         <v>0.76700000000000002</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E32" s="1">
+        <v>71919</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G32" s="2">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -1172,9 +1647,21 @@
       <c r="D33" s="2">
         <v>0.76700000000000002</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="1">
+        <v>44803</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.21100000000000002</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1187,9 +1674,21 @@
       <c r="D34" s="2">
         <v>0.74099999999999999</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>58878</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1202,9 +1701,21 @@
       <c r="D35" s="2">
         <v>0.76800000000000002</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="1">
+        <v>46556</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="H35" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -1217,9 +1728,21 @@
       <c r="D36" s="2">
         <v>0.78700000000000003</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="1">
+        <v>59029</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.17300000000000001</v>
+      </c>
+      <c r="G36" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1232,9 +1755,21 @@
       <c r="D37" s="2">
         <v>0.75099999999999989</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="1">
+        <v>49308</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1247,9 +1782,21 @@
       <c r="D38" s="2">
         <v>0.71700000000000008</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E38" s="1">
+        <v>47529</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.218</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1262,9 +1809,21 @@
       <c r="D39" s="2">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="1">
+        <v>51075</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H39" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1277,9 +1836,21 @@
       <c r="D40" s="2">
         <v>0.76700000000000002</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E40" s="1">
+        <v>53234</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.19699999999999998</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="H40" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1292,9 +1863,21 @@
       <c r="D41" s="2">
         <v>0.77500000000000002</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E41" s="1">
+        <v>54891</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="G41" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1307,9 +1890,21 @@
       <c r="D42" s="2">
         <v>0.747</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E42" s="1">
+        <v>45238</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1322,9 +1917,21 @@
       <c r="D43" s="2">
         <v>0.78799999999999992</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E43" s="1">
+        <v>50979</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G43" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -1337,9 +1944,21 @@
       <c r="D44" s="2">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E44" s="1">
+        <v>44361</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H44" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -1352,9 +1971,21 @@
       <c r="D45" s="2">
         <v>0.72400000000000009</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E45" s="1">
+        <v>53035</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="H45" s="2">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -1367,9 +1998,21 @@
       <c r="D46" s="2">
         <v>0.83200000000000007</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E46" s="1">
+        <v>60922</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G46" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -1382,9 +2025,21 @@
       <c r="D47" s="2">
         <v>0.81</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E47" s="1">
+        <v>54166</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.218</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -1397,9 +2052,21 @@
       <c r="D48" s="2">
         <v>0.76500000000000001</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E48" s="1">
+        <v>64902</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G48" s="2">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -1412,9 +2079,21 @@
       <c r="D49" s="2">
         <v>0.81900000000000006</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="1">
+        <v>61366</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.21600000000000003</v>
+      </c>
+      <c r="G49" s="2">
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -1427,9 +2106,21 @@
       <c r="D50" s="2">
         <v>0.71299999999999997</v>
       </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="1">
+        <v>41059</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H50" s="2">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -1442,9 +2133,21 @@
       <c r="D51" s="2">
         <v>0.78799999999999992</v>
       </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="1">
+        <v>52622</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H51" s="2">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -1457,21 +2160,34 @@
       <c r="D52" s="2">
         <v>0.77900000000000003</v>
       </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F56" s="1"/>
+      <c r="E52" s="1">
+        <v>57055</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="G52" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H52" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>